--- a/frequency.xlsx
+++ b/frequency.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14370" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="407">
   <si>
     <t>sys.stderr-&gt;getvalue</t>
   </si>
@@ -1210,6 +1210,36 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>sys._getframe-&gt;f_restricted</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;service_pack_major</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;major</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;minor</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;product_type</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;suite_mask</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;service_pack_minor</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;service_pack</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;platform</t>
+  </si>
+  <si>
+    <t>sys.getwindowsversion-&gt;build</t>
   </si>
 </sst>
 </file>
@@ -1576,18 +1606,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>394</v>
       </c>
@@ -1595,7 +1628,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1611,8 +1644,17 @@
       <c r="E2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1628,8 +1670,17 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1645,8 +1696,17 @@
       <c r="E4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1656,8 +1716,17 @@
       <c r="C5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1667,8 +1736,17 @@
       <c r="C6" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1684,8 +1762,17 @@
       <c r="E7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7">
+        <v>67</v>
+      </c>
+      <c r="J7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1695,8 +1782,17 @@
       <c r="C8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8">
+        <v>109</v>
+      </c>
+      <c r="J8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1706,8 +1802,17 @@
       <c r="C9" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9">
+        <v>221</v>
+      </c>
+      <c r="J9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1717,8 +1822,17 @@
       <c r="C10" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1728,8 +1842,17 @@
       <c r="C11" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1739,8 +1862,17 @@
       <c r="C12" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12">
+        <v>213</v>
+      </c>
+      <c r="J12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1750,8 +1882,17 @@
       <c r="C13" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>397</v>
+      </c>
+      <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1761,8 +1902,17 @@
       <c r="C14" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1772,8 +1922,17 @@
       <c r="C15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1783,8 +1942,17 @@
       <c r="C16" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1794,8 +1962,17 @@
       <c r="C17" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1805,8 +1982,17 @@
       <c r="C18" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -1816,8 +2002,17 @@
       <c r="C19" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1827,8 +2022,17 @@
       <c r="C20" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1838,8 +2042,17 @@
       <c r="C21" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1849,8 +2062,17 @@
       <c r="C22" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -1860,8 +2082,17 @@
       <c r="C23" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -1871,8 +2102,17 @@
       <c r="C24" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1888,8 +2128,14 @@
       <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -1899,8 +2145,17 @@
       <c r="C26" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -1910,8 +2165,17 @@
       <c r="C27" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27">
+        <v>5</v>
+      </c>
+      <c r="J27" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1921,8 +2185,17 @@
       <c r="C28" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1932,8 +2205,17 @@
       <c r="C29" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1943,8 +2225,14 @@
       <c r="C30" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>406</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1960,8 +2248,14 @@
       <c r="E31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>399</v>
+      </c>
+      <c r="I31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -1977,8 +2271,14 @@
       <c r="E32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>400</v>
+      </c>
+      <c r="I32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -1988,8 +2288,14 @@
       <c r="C33" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>405</v>
+      </c>
+      <c r="I33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -1999,8 +2305,14 @@
       <c r="C34" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>401</v>
+      </c>
+      <c r="I34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2010,8 +2322,14 @@
       <c r="C35" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>404</v>
+      </c>
+      <c r="I35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2021,8 +2339,14 @@
       <c r="C36" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>398</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2032,8 +2356,14 @@
       <c r="C37" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>403</v>
+      </c>
+      <c r="I37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2043,8 +2373,14 @@
       <c r="C38" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>402</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2054,8 +2390,17 @@
       <c r="C39" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>94</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2065,8 +2410,17 @@
       <c r="C40" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>65</v>
+      </c>
+      <c r="I40">
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2076,8 +2430,17 @@
       <c r="C41" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2087,8 +2450,17 @@
       <c r="C42" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>25</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -2098,8 +2470,17 @@
       <c r="C43" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43">
+        <v>7</v>
+      </c>
+      <c r="J43" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2109,8 +2490,17 @@
       <c r="C44" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -2120,16 +2510,34 @@
       <c r="C45" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2145,8 +2553,17 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2162,8 +2579,17 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2173,8 +2599,17 @@
       <c r="C49" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2190,8 +2625,17 @@
       <c r="E50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>9</v>
+      </c>
+      <c r="I50">
+        <v>14</v>
+      </c>
+      <c r="J50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2207,8 +2651,17 @@
       <c r="E51">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>32</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2218,8 +2671,17 @@
       <c r="C52" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2229,8 +2691,17 @@
       <c r="C53" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2246,8 +2717,17 @@
       <c r="E54">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54">
+        <v>5</v>
+      </c>
+      <c r="J54" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2257,8 +2737,17 @@
       <c r="C55" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>60</v>
+      </c>
+      <c r="I55">
+        <v>4</v>
+      </c>
+      <c r="J55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -2268,8 +2757,17 @@
       <c r="C56" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2279,8 +2777,17 @@
       <c r="C57" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>43</v>
+      </c>
+      <c r="J57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -2290,8 +2797,17 @@
       <c r="C58" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>92</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2301,8 +2817,17 @@
       <c r="C59" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>68</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2312,8 +2837,17 @@
       <c r="C60" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>69</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2323,8 +2857,17 @@
       <c r="C61" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>51</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -2334,8 +2877,17 @@
       <c r="C62" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -2345,8 +2897,17 @@
       <c r="C63" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63">
+        <v>6</v>
+      </c>
+      <c r="J63" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2356,8 +2917,17 @@
       <c r="C64" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64">
+        <v>9</v>
+      </c>
+      <c r="J64" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2373,8 +2943,17 @@
       <c r="E65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65">
+        <v>7</v>
+      </c>
+      <c r="J65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2390,8 +2969,17 @@
       <c r="E66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I66">
+        <v>4</v>
+      </c>
+      <c r="J66" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2401,8 +2989,17 @@
       <c r="C67" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>89</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -2412,8 +3009,17 @@
       <c r="C68" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>7</v>
+      </c>
+      <c r="I68">
+        <v>2</v>
+      </c>
+      <c r="J68" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -2423,8 +3029,17 @@
       <c r="C69" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -2434,8 +3049,17 @@
       <c r="C70" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>99</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -2445,8 +3069,17 @@
       <c r="C71" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>67</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -2456,8 +3089,17 @@
       <c r="C72" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -2467,8 +3109,17 @@
       <c r="C73" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>21</v>
+      </c>
+      <c r="J73" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -2478,8 +3129,17 @@
       <c r="C74" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>45</v>
+      </c>
+      <c r="I74">
+        <v>31</v>
+      </c>
+      <c r="J74" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -2489,8 +3149,17 @@
       <c r="C75" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <v>92</v>
+      </c>
+      <c r="J75" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -2500,8 +3169,17 @@
       <c r="C76" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>23</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -2511,8 +3189,17 @@
       <c r="C77" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>55</v>
+      </c>
+      <c r="I77">
+        <v>4</v>
+      </c>
+      <c r="J77" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2522,8 +3209,17 @@
       <c r="C78" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>53</v>
+      </c>
+      <c r="I78">
+        <v>7</v>
+      </c>
+      <c r="J78" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -2539,8 +3235,17 @@
       <c r="E79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>83</v>
+      </c>
+      <c r="I79">
+        <v>14</v>
+      </c>
+      <c r="J79" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2550,8 +3255,17 @@
       <c r="C80" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>81</v>
+      </c>
+      <c r="I80">
+        <v>10</v>
+      </c>
+      <c r="J80" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -2561,8 +3275,17 @@
       <c r="C81" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>56</v>
       </c>
@@ -2572,8 +3295,17 @@
       <c r="C82" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>95</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -2583,8 +3315,17 @@
       <c r="C83" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>74</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>48</v>
       </c>
@@ -2594,8 +3335,17 @@
       <c r="C84" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>39</v>
+      </c>
+      <c r="I84">
+        <v>47</v>
+      </c>
+      <c r="J84" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>18</v>
       </c>
@@ -2606,7 +3356,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -2623,7 +3373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -2634,7 +3384,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>93</v>
       </c>
@@ -2645,7 +3395,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -2656,7 +3406,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>67</v>
       </c>
@@ -2667,7 +3417,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2678,7 +3428,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +3439,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>45</v>
       </c>
@@ -2700,7 +3450,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2711,7 +3461,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -2722,7 +3472,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>55</v>
       </c>
@@ -2811,8 +3561,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B103">
-    <sortCondition ref="A1:A103"/>
+  <sortState ref="H2:I84">
+    <sortCondition ref="H1:H83"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2822,7 +3572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>

--- a/frequency.xlsx
+++ b/frequency.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="407">
   <si>
     <t>sys.stderr-&gt;getvalue</t>
   </si>
@@ -1606,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="J84" sqref="J84"/>
+    <sheetView tabSelected="1" topLeftCell="G8" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,9 +1618,10 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="44" customWidth="1"/>
+    <col min="11" max="11" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>394</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1653,8 +1654,17 @@
       <c r="J2" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -1679,8 +1689,17 @@
       <c r="J3" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3">
+        <v>12</v>
+      </c>
+      <c r="M3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1705,8 +1724,17 @@
       <c r="J4" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -1725,8 +1753,17 @@
       <c r="J5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>21</v>
+      </c>
+      <c r="M5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1745,8 +1782,17 @@
       <c r="J6" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1771,8 +1817,17 @@
       <c r="J7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7">
+        <v>215</v>
+      </c>
+      <c r="M7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -1791,8 +1846,17 @@
       <c r="J8" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -1811,8 +1875,17 @@
       <c r="J9" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9">
+        <v>39</v>
+      </c>
+      <c r="M9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1831,8 +1904,17 @@
       <c r="J10" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10">
+        <v>213</v>
+      </c>
+      <c r="M10" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1851,8 +1933,17 @@
       <c r="J11" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11" t="s">
+        <v>397</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1871,8 +1962,17 @@
       <c r="J12" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1891,8 +1991,17 @@
       <c r="J13" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -1911,8 +2020,17 @@
       <c r="J14" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -1931,8 +2049,17 @@
       <c r="J15" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -1951,8 +2078,14 @@
       <c r="J16" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1971,8 +2104,17 @@
       <c r="J17" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1991,8 +2133,17 @@
       <c r="J18" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -2011,8 +2162,17 @@
       <c r="J19" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -2031,8 +2191,17 @@
       <c r="J20" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>406</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -2051,8 +2220,17 @@
       <c r="J21" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>399</v>
+      </c>
+      <c r="L21">
+        <v>10</v>
+      </c>
+      <c r="M21" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2071,8 +2249,17 @@
       <c r="J22" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>400</v>
+      </c>
+      <c r="L22">
+        <v>10</v>
+      </c>
+      <c r="M22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>97</v>
       </c>
@@ -2091,8 +2278,17 @@
       <c r="J23" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>405</v>
+      </c>
+      <c r="L23">
+        <v>10</v>
+      </c>
+      <c r="M23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -2111,8 +2307,17 @@
       <c r="J24" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>401</v>
+      </c>
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2134,8 +2339,17 @@
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>404</v>
+      </c>
+      <c r="L25">
+        <v>10</v>
+      </c>
+      <c r="M25" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2154,8 +2368,17 @@
       <c r="J26" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>398</v>
+      </c>
+      <c r="L26">
+        <v>5</v>
+      </c>
+      <c r="M26" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2174,8 +2397,17 @@
       <c r="J27" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>403</v>
+      </c>
+      <c r="L27">
+        <v>5</v>
+      </c>
+      <c r="M27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -2194,8 +2426,17 @@
       <c r="J28" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>402</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -2214,8 +2455,17 @@
       <c r="J29" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29" t="s">
+        <v>70</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -2231,8 +2481,17 @@
       <c r="I30">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30" t="s">
+        <v>61</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -2254,8 +2513,17 @@
       <c r="I31">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>75</v>
       </c>
@@ -2277,8 +2545,17 @@
       <c r="I32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>98</v>
       </c>
@@ -2294,8 +2571,17 @@
       <c r="I33">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -2311,8 +2597,17 @@
       <c r="I34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34" t="s">
+        <v>63</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -2328,8 +2623,17 @@
       <c r="I35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L35">
+        <v>5</v>
+      </c>
+      <c r="M35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2345,8 +2649,17 @@
       <c r="I36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>52</v>
       </c>
@@ -2362,8 +2675,17 @@
       <c r="I37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>60</v>
+      </c>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>17</v>
       </c>
@@ -2379,8 +2701,17 @@
       <c r="I38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38" t="s">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2399,8 +2730,17 @@
       <c r="J39" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39" t="s">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>43</v>
+      </c>
+      <c r="M39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2419,8 +2759,17 @@
       <c r="J40" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
+        <v>92</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -2439,8 +2788,17 @@
       <c r="J41" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -2459,8 +2817,17 @@
       <c r="J42" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -2479,8 +2846,17 @@
       <c r="J43" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -2499,8 +2875,17 @@
       <c r="J44" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44" t="s">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>17</v>
+      </c>
+      <c r="M44" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -2519,8 +2904,17 @@
       <c r="J45" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45" t="s">
+        <v>37</v>
+      </c>
+      <c r="L45">
+        <v>6</v>
+      </c>
+      <c r="M45" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>76</v>
       </c>
@@ -2536,8 +2930,17 @@
       <c r="J46" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>9</v>
+      </c>
+      <c r="M46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>91</v>
       </c>
@@ -2562,8 +2965,17 @@
       <c r="J47" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47" t="s">
+        <v>56</v>
+      </c>
+      <c r="L47">
+        <v>7</v>
+      </c>
+      <c r="M47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -2588,8 +3000,17 @@
       <c r="J48" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K48" t="s">
+        <v>48</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -2608,8 +3029,17 @@
       <c r="J49" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>89</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2634,8 +3064,17 @@
       <c r="J50" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -2660,8 +3099,17 @@
       <c r="J51" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K51" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>78</v>
       </c>
@@ -2680,8 +3128,17 @@
       <c r="J52" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2700,8 +3157,17 @@
       <c r="J53" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -2726,8 +3192,17 @@
       <c r="J54" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
+      </c>
+      <c r="M54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2746,8 +3221,17 @@
       <c r="J55" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K55" t="s">
+        <v>4</v>
+      </c>
+      <c r="L55">
+        <v>21</v>
+      </c>
+      <c r="M55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -2766,8 +3250,17 @@
       <c r="J56" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K56" t="s">
+        <v>45</v>
+      </c>
+      <c r="L56">
+        <v>21</v>
+      </c>
+      <c r="M56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -2786,8 +3279,17 @@
       <c r="J57" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K57" t="s">
+        <v>24</v>
+      </c>
+      <c r="L57">
+        <v>92</v>
+      </c>
+      <c r="M57" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -2806,8 +3308,17 @@
       <c r="J58" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K58" t="s">
+        <v>23</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +3337,17 @@
       <c r="J59" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K59" t="s">
+        <v>55</v>
+      </c>
+      <c r="L59">
+        <v>4</v>
+      </c>
+      <c r="M59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>96</v>
       </c>
@@ -2846,8 +3366,17 @@
       <c r="J60" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K60" t="s">
+        <v>53</v>
+      </c>
+      <c r="L60">
+        <v>7</v>
+      </c>
+      <c r="M60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>34</v>
       </c>
@@ -2866,8 +3395,17 @@
       <c r="J61" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K61" t="s">
+        <v>83</v>
+      </c>
+      <c r="L61">
+        <v>14</v>
+      </c>
+      <c r="M61" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -2886,8 +3424,17 @@
       <c r="J62" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K62" t="s">
+        <v>81</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -2906,8 +3453,17 @@
       <c r="J63" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K63" t="s">
+        <v>95</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>26</v>
       </c>
@@ -2926,8 +3482,17 @@
       <c r="J64" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2952,8 +3517,17 @@
       <c r="J65" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65" t="s">
+        <v>39</v>
+      </c>
+      <c r="L65">
+        <v>43</v>
+      </c>
+      <c r="M65" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -2979,7 +3553,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -2999,7 +3573,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>63</v>
       </c>
@@ -3019,7 +3593,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -3039,7 +3613,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>21</v>
       </c>
@@ -3059,7 +3633,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>60</v>
       </c>
@@ -3079,7 +3653,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>2</v>
       </c>
@@ -3099,7 +3673,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -3119,7 +3693,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -3139,7 +3713,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>68</v>
       </c>
@@ -3159,7 +3733,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>69</v>
       </c>
@@ -3179,7 +3753,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -3199,7 +3773,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -3219,7 +3793,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>37</v>
       </c>
@@ -3245,7 +3819,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -3561,8 +4135,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="H2:I84">
-    <sortCondition ref="H1:H83"/>
+  <sortState ref="K2:L65">
+    <sortCondition ref="K2:K65"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frequency.xlsx
+++ b/frequency.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="201">
   <si>
     <t>sys._getframe-&gt;f_back</t>
   </si>
@@ -429,9 +429,6 @@
     <t>linux</t>
   </si>
   <si>
-    <t>re.findall-&gt;lower</t>
-  </si>
-  <si>
     <t>re.sub-&gt;replace</t>
   </si>
   <si>
@@ -441,30 +438,12 @@
     <t>re.sub-&gt;read</t>
   </si>
   <si>
-    <t>re.sub-&gt;endswith</t>
-  </si>
-  <si>
-    <t>re.search-&gt;expand</t>
-  </si>
-  <si>
-    <t>re.match-&gt;endpos</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;__len__</t>
-  </si>
-  <si>
     <t>re.search-&gt;addAction</t>
   </si>
   <si>
     <t>re.compile-&gt;match</t>
   </si>
   <si>
-    <t>re.findall-&gt;end</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;classes</t>
-  </si>
-  <si>
     <t>re.match-&gt;end</t>
   </si>
   <si>
@@ -480,15 +459,9 @@
     <t>re.sub-&gt;startswith</t>
   </si>
   <si>
-    <t>re.split-&gt;append</t>
-  </si>
-  <si>
     <t>re.sub-&gt;encode</t>
   </si>
   <si>
-    <t>re.findall-&gt;index</t>
-  </si>
-  <si>
     <t>re.Scanner-&gt;scanner</t>
   </si>
   <si>
@@ -498,63 +471,30 @@
     <t>re.split-&gt;pop</t>
   </si>
   <si>
-    <t>re.findall-&gt;extend</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;capitalize</t>
-  </si>
-  <si>
     <t>re.sub-&gt;upper</t>
   </si>
   <si>
     <t>re.compile-&gt;sub</t>
   </si>
   <si>
-    <t>re.sub-&gt;cssText</t>
-  </si>
-  <si>
     <t>re.search-&gt;start</t>
   </si>
   <si>
-    <t>re.compile-&gt;scenario_separator</t>
-  </si>
-  <si>
     <t>re.match-&gt;start</t>
   </si>
   <si>
     <t>re.compile-&gt;subn</t>
   </si>
   <si>
-    <t>re.findall-&gt;remove</t>
-  </si>
-  <si>
     <t>re.search-&gt;strip</t>
   </si>
   <si>
-    <t>re.findall-&gt;insert</t>
-  </si>
-  <si>
-    <t>re.compile-&gt;groups</t>
-  </si>
-  <si>
-    <t>re.split-&gt;reverse</t>
-  </si>
-  <si>
     <t>re.search-&gt;group</t>
   </si>
   <si>
-    <t>re.sub-&gt;group</t>
-  </si>
-  <si>
-    <t>re.split-&gt;extend</t>
-  </si>
-  <si>
     <t>re.compile-&gt;lower</t>
   </si>
   <si>
-    <t>re.sub-&gt;decode</t>
-  </si>
-  <si>
     <t>re.compile-&gt;toString</t>
   </si>
   <si>
@@ -564,66 +504,15 @@
     <t>re.search-&gt;groups</t>
   </si>
   <si>
-    <t>re.findall-&gt;count</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;valid</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;_setCssText</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;getStringValue</t>
-  </si>
-  <si>
     <t>re.compile-&gt;feature</t>
   </si>
   <si>
     <t>re.compile-&gt;groupindex</t>
   </si>
   <si>
-    <t>re.finditer-&gt;next</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;isdigit</t>
-  </si>
-  <si>
-    <t>re.compile-&gt;flags</t>
-  </si>
-  <si>
-    <t>re.match-&gt;lastindex</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;isspace</t>
-  </si>
-  <si>
-    <t>re.findall-&gt;reverse</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;isupper</t>
-  </si>
-  <si>
     <t>re.match-&gt;group</t>
   </si>
   <si>
-    <t>re.split-&gt;remove</t>
-  </si>
-  <si>
-    <t>re.search-&gt;span</t>
-  </si>
-  <si>
-    <t>re.findall-&gt;append</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;wellformed</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;rfind</t>
-  </si>
-  <si>
-    <t>re.match-&gt;upper</t>
-  </si>
-  <si>
     <t>re.search-&gt;end</t>
   </si>
   <si>
@@ -645,21 +534,9 @@
     <t>re.compile-&gt;pattern</t>
   </si>
   <si>
-    <t>re.sub-&gt;primitiveType</t>
-  </si>
-  <si>
     <t>re.findall-&gt;get</t>
   </si>
   <si>
-    <t>re.findall-&gt;split</t>
-  </si>
-  <si>
-    <t>re.search-&gt;append</t>
-  </si>
-  <si>
-    <t>re.match-&gt;get</t>
-  </si>
-  <si>
     <t>re.Scanner-&gt;search</t>
   </si>
   <si>
@@ -669,27 +546,18 @@
     <t>re.match-&gt;groupdict</t>
   </si>
   <si>
-    <t>re.split-&gt;insert</t>
-  </si>
-  <si>
     <t>re.compile-&gt;findall</t>
   </si>
   <si>
     <t>re.sub-&gt;splitlines</t>
   </si>
   <si>
-    <t>re.match-&gt;line_offset</t>
-  </si>
-  <si>
     <t>re.sub-&gt;strip</t>
   </si>
   <si>
     <t>re.search-&gt;addMenu</t>
   </si>
   <si>
-    <t>re.sub-&gt;text_content</t>
-  </si>
-  <si>
     <t>re.compile-&gt;split</t>
   </si>
   <si>
@@ -699,12 +567,6 @@
     <t>re.match-&gt;re</t>
   </si>
   <si>
-    <t>re.compile-&gt;replace</t>
-  </si>
-  <si>
-    <t>re.split-&gt;sort</t>
-  </si>
-  <si>
     <t>re.compile-&gt;rstrip</t>
   </si>
   <si>
@@ -714,40 +576,52 @@
     <t>re.compile-&gt;addQueryItem</t>
   </si>
   <si>
-    <t>re.sub-&gt;rsplit</t>
-  </si>
-  <si>
-    <t>re.match-&gt;span</t>
-  </si>
-  <si>
-    <t>re.escape-&gt;replace</t>
-  </si>
-  <si>
     <t>re.sub-&gt;find</t>
   </si>
   <si>
-    <t>re.sub-&gt;findNext</t>
-  </si>
-  <si>
     <t>re.findall-&gt;sort</t>
   </si>
   <si>
     <t>re.sub-&gt;split</t>
   </si>
   <si>
-    <t>re.sub-&gt;title</t>
-  </si>
-  <si>
-    <t>re.split-&gt;index</t>
-  </si>
-  <si>
-    <t>re.match-&gt;sort</t>
-  </si>
-  <si>
     <t>re.sub-&gt;rstrip</t>
   </si>
   <si>
-    <t>re.match-&gt;get_statement_for_position</t>
+    <t>re.sub-&gt;extend</t>
+  </si>
+  <si>
+    <t>re.compile-&gt;examples</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;append</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;delattr</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;variant</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;take</t>
+  </si>
+  <si>
+    <t>re.compile-&gt;endswith</t>
+  </si>
+  <si>
+    <t>re.compile-&gt;output</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;properties</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;parent</t>
+  </si>
+  <si>
+    <t>re.compile-&gt;feed</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;clear</t>
   </si>
 </sst>
 </file>
@@ -2700,20 +2574,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B108"/>
+  <dimension ref="A2:B66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A2" sqref="A2:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2721,7 +2595,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2729,55 +2603,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B4">
-        <v>1503</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="B5">
-        <v>929</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="B7">
-        <v>64</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="B8">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2785,23 +2659,23 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B11">
-        <v>9616</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="B12">
-        <v>236</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -2809,15 +2683,15 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -2825,15 +2699,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -2841,23 +2715,23 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B18">
-        <v>5453</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="B19">
-        <v>940</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2865,23 +2739,23 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B21">
-        <v>4806</v>
+        <v>2917</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B22">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2889,31 +2763,31 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>233</v>
+        <v>171</v>
       </c>
       <c r="B24">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="B25">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>186</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2921,111 +2795,111 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
       <c r="B29">
-        <v>19</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>139</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="B38">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B39">
-        <v>38</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B40">
-        <v>44</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3033,47 +2907,47 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>160</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="B44">
-        <v>4582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>149</v>
       </c>
       <c r="B45">
-        <v>158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>191</v>
       </c>
       <c r="B46">
-        <v>525</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -3081,15 +2955,15 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B48">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -3097,63 +2971,63 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>146</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="B51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="B53">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="B55">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -3161,31 +3035,31 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>221</v>
+        <v>136</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B60">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -3193,383 +3067,47 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B62">
-        <v>4904</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="B63">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B64">
-        <v>297</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
       <c r="B65">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="B66">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>169</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>239</v>
-      </c>
-      <c r="B70">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>158</v>
-      </c>
-      <c r="B72">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>195</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>172</v>
-      </c>
-      <c r="B74">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>227</v>
-      </c>
-      <c r="B75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>143</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>183</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>160</v>
-      </c>
-      <c r="B78">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>163</v>
-      </c>
-      <c r="B81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>177</v>
-      </c>
-      <c r="B82">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>154</v>
-      </c>
-      <c r="B83">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>140</v>
-      </c>
-      <c r="B84">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>234</v>
-      </c>
-      <c r="B85">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>235</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>174</v>
-      </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>188</v>
-      </c>
-      <c r="B89">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>191</v>
-      </c>
-      <c r="B90">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>193</v>
-      </c>
-      <c r="B91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>150</v>
-      </c>
-      <c r="B92">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>224</v>
-      </c>
-      <c r="B93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>139</v>
-      </c>
-      <c r="B95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>137</v>
-      </c>
-      <c r="B96">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>199</v>
-      </c>
-      <c r="B97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>231</v>
-      </c>
-      <c r="B98">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>241</v>
-      </c>
-      <c r="B99">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>237</v>
-      </c>
-      <c r="B100">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>218</v>
-      </c>
-      <c r="B101">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>152</v>
-      </c>
-      <c r="B102">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>220</v>
-      </c>
-      <c r="B103">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>222</v>
-      </c>
-      <c r="B104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>238</v>
-      </c>
-      <c r="B105">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>161</v>
-      </c>
-      <c r="B106">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>198</v>
-      </c>
-      <c r="B108">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:B108">
-    <sortCondition ref="A2:A108"/>
+  <sortState ref="A2:B66">
+    <sortCondition ref="A2:A66"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/frequency.xlsx
+++ b/frequency.xlsx
@@ -7,9 +7,9 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14370" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="sys" sheetId="1" r:id="rId1"/>
+    <sheet name="os" sheetId="2" r:id="rId2"/>
+    <sheet name="re" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="218">
   <si>
     <t>sys._getframe-&gt;f_back</t>
   </si>
@@ -429,6 +429,9 @@
     <t>linux</t>
   </si>
   <si>
+    <t>re.findall-&gt;lower</t>
+  </si>
+  <si>
     <t>re.sub-&gt;replace</t>
   </si>
   <si>
@@ -438,12 +441,21 @@
     <t>re.sub-&gt;read</t>
   </si>
   <si>
-    <t>re.search-&gt;addAction</t>
+    <t>re.sub-&gt;endswith</t>
+  </si>
+  <si>
+    <t>re.search-&gt;expand</t>
+  </si>
+  <si>
+    <t>re.match-&gt;endpos</t>
   </si>
   <si>
     <t>re.compile-&gt;match</t>
   </si>
   <si>
+    <t>re.sub-&gt;classes</t>
+  </si>
+  <si>
     <t>re.match-&gt;end</t>
   </si>
   <si>
@@ -459,6 +471,9 @@
     <t>re.sub-&gt;startswith</t>
   </si>
   <si>
+    <t>re.split-&gt;append</t>
+  </si>
+  <si>
     <t>re.sub-&gt;encode</t>
   </si>
   <si>
@@ -471,6 +486,12 @@
     <t>re.split-&gt;pop</t>
   </si>
   <si>
+    <t>re.findall-&gt;extend</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;capitalize</t>
+  </si>
+  <si>
     <t>re.sub-&gt;upper</t>
   </si>
   <si>
@@ -486,13 +507,31 @@
     <t>re.compile-&gt;subn</t>
   </si>
   <si>
+    <t>re.findall-&gt;remove</t>
+  </si>
+  <si>
     <t>re.search-&gt;strip</t>
   </si>
   <si>
+    <t>re.findall-&gt;insert</t>
+  </si>
+  <si>
+    <t>re.compile-&gt;groups</t>
+  </si>
+  <si>
+    <t>re.split-&gt;reverse</t>
+  </si>
+  <si>
     <t>re.search-&gt;group</t>
   </si>
   <si>
-    <t>re.compile-&gt;lower</t>
+    <t>re.sub-&gt;group</t>
+  </si>
+  <si>
+    <t>re.split-&gt;extend</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;decode</t>
   </si>
   <si>
     <t>re.compile-&gt;toString</t>
@@ -504,15 +543,36 @@
     <t>re.search-&gt;groups</t>
   </si>
   <si>
-    <t>re.compile-&gt;feature</t>
-  </si>
-  <si>
     <t>re.compile-&gt;groupindex</t>
   </si>
   <si>
+    <t>re.finditer-&gt;next</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;isdigit</t>
+  </si>
+  <si>
+    <t>re.compile-&gt;flags</t>
+  </si>
+  <si>
+    <t>re.match-&gt;lastindex</t>
+  </si>
+  <si>
+    <t>re.findall-&gt;reverse</t>
+  </si>
+  <si>
+    <t>re.sub-&gt;isupper</t>
+  </si>
+  <si>
     <t>re.match-&gt;group</t>
   </si>
   <si>
+    <t>re.search-&gt;span</t>
+  </si>
+  <si>
+    <t>re.findall-&gt;append</t>
+  </si>
+  <si>
     <t>re.search-&gt;end</t>
   </si>
   <si>
@@ -537,7 +597,7 @@
     <t>re.findall-&gt;get</t>
   </si>
   <si>
-    <t>re.Scanner-&gt;search</t>
+    <t>re.findall-&gt;split</t>
   </si>
   <si>
     <t>re.sub-&gt;count</t>
@@ -546,6 +606,9 @@
     <t>re.match-&gt;groupdict</t>
   </si>
   <si>
+    <t>re.split-&gt;insert</t>
+  </si>
+  <si>
     <t>re.compile-&gt;findall</t>
   </si>
   <si>
@@ -555,7 +618,7 @@
     <t>re.sub-&gt;strip</t>
   </si>
   <si>
-    <t>re.search-&gt;addMenu</t>
+    <t>re.sub-&gt;text_content</t>
   </si>
   <si>
     <t>re.compile-&gt;split</t>
@@ -567,61 +630,49 @@
     <t>re.match-&gt;re</t>
   </si>
   <si>
-    <t>re.compile-&gt;rstrip</t>
+    <t>re.compile-&gt;replace</t>
+  </si>
+  <si>
+    <t>re.split-&gt;sort</t>
   </si>
   <si>
     <t>re.match-&gt;groups</t>
   </si>
   <si>
-    <t>re.compile-&gt;addQueryItem</t>
+    <t>re.sub-&gt;rsplit</t>
+  </si>
+  <si>
+    <t>re.match-&gt;span</t>
   </si>
   <si>
     <t>re.sub-&gt;find</t>
   </si>
   <si>
+    <t>re.sub-&gt;findNext</t>
+  </si>
+  <si>
     <t>re.findall-&gt;sort</t>
   </si>
   <si>
     <t>re.sub-&gt;split</t>
   </si>
   <si>
+    <t>re.sub-&gt;title</t>
+  </si>
+  <si>
+    <t>re.split-&gt;index</t>
+  </si>
+  <si>
     <t>re.sub-&gt;rstrip</t>
   </si>
   <si>
     <t>re.sub-&gt;extend</t>
   </si>
   <si>
-    <t>re.compile-&gt;examples</t>
-  </si>
-  <si>
     <t>re.sub-&gt;append</t>
   </si>
   <si>
-    <t>re.sub-&gt;delattr</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;variant</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;take</t>
-  </si>
-  <si>
-    <t>re.compile-&gt;endswith</t>
-  </si>
-  <si>
-    <t>re.compile-&gt;output</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;properties</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;parent</t>
-  </si>
-  <si>
-    <t>re.compile-&gt;feed</t>
-  </si>
-  <si>
-    <t>re.sub-&gt;clear</t>
+    <t>str</t>
   </si>
 </sst>
 </file>
@@ -2574,540 +2625,956 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B66"/>
+  <dimension ref="A2:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B66"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>988</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8">
+        <v>6927</v>
+      </c>
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B9">
+        <v>226</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13">
+        <v>3943</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14">
+        <v>590</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16">
+        <v>4015</v>
+      </c>
+      <c r="C16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>179</v>
+      </c>
+      <c r="B27">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B28">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>35</v>
+      </c>
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33">
+        <v>3177</v>
+      </c>
+      <c r="C33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35">
+        <v>343</v>
+      </c>
+      <c r="C35" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>202</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>207</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40">
+        <v>12</v>
+      </c>
+      <c r="C40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41">
+        <v>7</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>184</v>
       </c>
-      <c r="B2">
+      <c r="B42">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44">
+        <v>3584</v>
+      </c>
+      <c r="C44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46">
+        <v>158</v>
+      </c>
+      <c r="C46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47">
+        <v>19</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48">
+        <v>28</v>
+      </c>
+      <c r="C48" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>163</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>119</v>
+      </c>
+      <c r="D50">
+        <v>27</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>195</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4">
+      <c r="B53">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5">
+      <c r="C53" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>216</v>
+      </c>
+      <c r="B57">
+        <v>53</v>
+      </c>
+      <c r="C57" t="s">
+        <v>121</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>140</v>
+      </c>
+      <c r="B63">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>208</v>
+      </c>
+      <c r="B65">
+        <v>40</v>
+      </c>
+      <c r="C65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>209</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70">
+        <v>62</v>
+      </c>
+      <c r="C70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>211</v>
+      </c>
+      <c r="B76">
+        <v>121</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77">
+        <v>59</v>
+      </c>
+      <c r="C77" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78">
+        <v>35</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>199</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>157</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12">
-        <v>5470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>182</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>142</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>179</v>
-      </c>
-      <c r="B19">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B21">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>158</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B24">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>186</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>163</v>
-      </c>
-      <c r="B29">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>178</v>
-      </c>
-      <c r="B38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>164</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>137</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>200</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>173</v>
-      </c>
-      <c r="B48">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>189</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>185</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>197</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>138</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>188</v>
-      </c>
-      <c r="B59">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>176</v>
-      </c>
-      <c r="B61">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>145</v>
-      </c>
-      <c r="B62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>177</v>
-      </c>
-      <c r="B63">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>194</v>
-      </c>
-      <c r="B64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>193</v>
-      </c>
-      <c r="B66">
-        <v>2</v>
+      <c r="B82">
+        <v>22</v>
+      </c>
+      <c r="C82" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B66">
-    <sortCondition ref="A2:A66"/>
+  <sortState ref="A2:B82">
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
